--- a/data/trans_dic/P12B1_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &gt;=60 años</t>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>54,42%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,29%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>71,97%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>66,74%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>69,45%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>63,76%</t>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,91%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 82,5</t>
+          <t>0,0; 17,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,92; 89,21</t>
+          <t>0,0; 13,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,5; 85,35</t>
+          <t>1,79; 19,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,76; 88,9</t>
+          <t>1,08; 16,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,42; 90,19</t>
+          <t>2,48; 19,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,27; 84,25</t>
+          <t>2,36; 19,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,46; 79,76</t>
+          <t>0,0; 14,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,51; 85,24</t>
+          <t>2,98; 47,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,49; 81,23</t>
+          <t>2,72; 14,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,41; 12,43</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>2,05; 12,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,25; 33,59</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>51,28%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>29,03%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52,85%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>58,72%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,39%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>52,1%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,56; 77,83</t>
+          <t>2,34; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 58,92</t>
+          <t>0,53; 6,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 72,12</t>
+          <t>1,47; 7,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 75,59</t>
+          <t>1,72; 9,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,37; 81,32</t>
+          <t>0,93; 5,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,95; 79,9</t>
+          <t>0,57; 5,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,8; 68,84</t>
+          <t>1,0; 6,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,15; 59,27</t>
+          <t>2,13; 9,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 67,74</t>
+          <t>1,96; 6,2</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 4,47</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 5,42</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 8,14</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>58,01%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>66,76%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>59,13%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,82%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,49%</t>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>3,72%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 70,04</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,19; 88,59</t>
+          <t>1,39; 8,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,42; 67,58</t>
+          <t>1,4; 9,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>42,72; 87,72</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,79; 78,44</t>
+          <t>1,05; 6,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,38; 80,69</t>
+          <t>0,49; 4,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,57; 71,49</t>
+          <t>1,24; 7,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,24; 72,36</t>
+          <t>1,77; 8,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 68,21</t>
+          <t>0,95; 4,52</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 5,26</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 6,35</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 5,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>61,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>60,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 63,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,18; 62,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,91; 61,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>48,01; 74,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,14; 75,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>47,87; 74,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,62; 65,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,13; 63,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,19; 63,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,99%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,46%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,95%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>5,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,78; 6,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 5,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 7,06</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 6,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,08; 5,79</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 5,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 5,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,78; 14,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 5,12</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 4,59</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2,57; 5,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,46; 9,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>4249</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8886</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>9039</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10240</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37156</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18380</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14490</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13997</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46195</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22733</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 14361</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2046; 22073</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1916; 29451</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3536; 27905</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2725; 22621</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17998</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6253; 99910</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7387; 38308</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5323; 27473</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4853; 30059</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12614; 130267</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21584</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7850</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15329</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>23751</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11010</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9542</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22888</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32595</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>16435</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24871</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>46639</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10052; 46686</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1993; 22591</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5882; 30496</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8584; 47415</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4278; 24413</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>2165; 20026</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3744; 22868</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10038; 45256</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17476; 55314</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7194; 33792</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13543; 41999</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27167; 79020</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4707</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10729</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>10956</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>12718</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5608</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11451</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17486</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17425</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16337</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22407</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>22010</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15170</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3902; 24309</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3860; 25116</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14085</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4515; 28676</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1693; 16022</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4074; 23865</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6878; 34674</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7202; 34423</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7549; 32909</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11242; 38283</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10371; 41228</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>32049</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22829</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35171</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>37312</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>36351</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24433</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26103</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>77531</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>68400</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>47262</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>61275</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>114843</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>15826; 55099</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>11001; 40325</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20133; 55715</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19540; 69799</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>21457; 59839</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>13235; 42265</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>13485; 41299</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40386; 158564</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>44827; 98613</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30008; 73596</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>41427; 86764</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>72689; 199752</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
